--- a/test-dataset/dataset.xlsx
+++ b/test-dataset/dataset.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CdM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UniBg\Documents\J-CO\test-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F7160-DCF6-499A-AAD0-147E9FED84E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC4DA0-633F-4B30-887A-1AADBDA068AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="2460" windowWidth="27255" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -280,6 +282,75 @@
   </si>
   <si>
     <t>Piscine</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>)|</t>
+  </si>
+  <si>
+    <t>| [click here](</t>
+  </si>
+  <si>
+    <t>Swimming pools</t>
+  </si>
+  <si>
+    <t>Bus stop sequence</t>
+  </si>
+  <si>
+    <t>Bus lanes</t>
+  </si>
+  <si>
+    <t>Sport Centers</t>
+  </si>
+  <si>
+    <t>Bike sharing stations</t>
+  </si>
+  <si>
+    <t>Public bike docking stations</t>
+  </si>
+  <si>
+    <t>City Districts</t>
+  </si>
+  <si>
+    <t>Parchi</t>
+  </si>
+  <si>
+    <t>ds89</t>
+  </si>
+  <si>
+    <t>https://dati.comune.milano.it/dataset/ds89_infogeo_parchi_giardini_localizzazione_</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>ds522</t>
+  </si>
+  <si>
+    <t>https://dati.comune.milano.it/dataset/ds522_verde-urbano-aree-naturali-ville-parchi-e-giardini-2011-2016</t>
+  </si>
+  <si>
+    <t>AreeVerdi</t>
+  </si>
+  <si>
+    <t>Green Areas</t>
+  </si>
+  <si>
+    <t>CityParks</t>
   </si>
 </sst>
 </file>
@@ -324,9 +395,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -608,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,180 +721,216 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1522</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>790</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2618</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>280</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>63529</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>6372</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>2334</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -843,207 +951,1001 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12">
-        <v>194</v>
+        <v>2334</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>407</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>2618</v>
+        <v>6372</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>790</v>
+        <v>63529</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>4117</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
+      <c r="E17">
+        <v>1522</v>
+      </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>180</v>
+      <c r="E18" t="s">
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{A7BC56D4-02B7-4C5E-888E-81D1DEDB2045}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I19">
-      <sortCondition descending="1" ref="F1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
+      <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{E032F049-B9E2-4EB4-98E0-FFB1CCF53599}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{3D9DDDC1-A389-4197-8443-FF503393D0F3}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{800ACB4B-2299-47B3-BA93-3F0E4587DC13}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{0D2D9534-6297-42A3-A8A1-D952E4BDD2D6}"/>
-    <hyperlink ref="G18" r:id="rId5" xr:uid="{EFB618F4-416E-4233-88A6-0BDA835E3B43}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{B1719578-4A10-4A1C-92D1-2F000C73BAC7}"/>
-    <hyperlink ref="G2" r:id="rId7" xr:uid="{59F57B4F-CBE4-4145-9A51-E9C5476F9442}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{04FD916C-6CEC-4C02-B62C-92DD8CAD2452}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{BB71C735-134C-419D-8313-769E9C7A2A51}"/>
-    <hyperlink ref="G3" r:id="rId10" xr:uid="{81CC0539-3D32-4A91-8B08-713DD65B043D}"/>
-    <hyperlink ref="G4" r:id="rId11" xr:uid="{E7C79FA7-404A-46F2-B745-C853FFD7BCB1}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{8AAC13EF-6D13-4910-8FE0-8A20B7A5931D}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{0D83B9E2-AC29-4A75-A625-BDC7685CD1F2}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{B9465CA3-BFC4-4EE2-8212-16ABD2A90B16}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{8C34F21B-F628-4016-943C-4CAF1CAD3658}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{CC21E18F-1100-48A1-BAF9-3F21758354A4}"/>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{E032F049-B9E2-4EB4-98E0-FFB1CCF53599}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{3D9DDDC1-A389-4197-8443-FF503393D0F3}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{800ACB4B-2299-47B3-BA93-3F0E4587DC13}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{0D2D9534-6297-42A3-A8A1-D952E4BDD2D6}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{EFB618F4-416E-4233-88A6-0BDA835E3B43}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{B1719578-4A10-4A1C-92D1-2F000C73BAC7}"/>
+    <hyperlink ref="G20" r:id="rId7" xr:uid="{59F57B4F-CBE4-4145-9A51-E9C5476F9442}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{04FD916C-6CEC-4C02-B62C-92DD8CAD2452}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{BB71C735-134C-419D-8313-769E9C7A2A51}"/>
+    <hyperlink ref="G19" r:id="rId10" xr:uid="{81CC0539-3D32-4A91-8B08-713DD65B043D}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{E7C79FA7-404A-46F2-B745-C853FFD7BCB1}"/>
+    <hyperlink ref="G10" r:id="rId12" xr:uid="{8AAC13EF-6D13-4910-8FE0-8A20B7A5931D}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{0D83B9E2-AC29-4A75-A625-BDC7685CD1F2}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{B9465CA3-BFC4-4EE2-8212-16ABD2A90B16}"/>
+    <hyperlink ref="G7" r:id="rId15" xr:uid="{8C34F21B-F628-4016-943C-4CAF1CAD3658}"/>
+    <hyperlink ref="G3" r:id="rId16" xr:uid="{CC21E18F-1100-48A1-BAF9-3F21758354A4}"/>
     <hyperlink ref="G11" r:id="rId17" xr:uid="{217BED78-4836-4F6D-A724-97ED4BA7647D}"/>
-    <hyperlink ref="G17" r:id="rId18" xr:uid="{675F22C3-4B75-442E-8FFA-AB591838ADB6}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{58166616-23C9-4C37-9A4A-5E662BF47406}"/>
+    <hyperlink ref="G5" r:id="rId18" xr:uid="{675F22C3-4B75-442E-8FFA-AB591838ADB6}"/>
+    <hyperlink ref="G2" r:id="rId19" xr:uid="{58166616-23C9-4C37-9A4A-5E662BF47406}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{89BFC4C2-8E69-4388-9500-07BB270E5958}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{B949474B-4D3E-44DF-A17B-539CA4D2CBA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5451D6FD-DB96-4BFA-A4CC-A88A3B98B1C2}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="87.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>4117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <v>790</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>2618</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>2334</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15">
+        <v>407</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>6372</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17">
+        <v>63529</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
+        <v>280</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19">
+        <v>1522</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{9DD7480C-62B3-4B60-987E-2D342DD34030}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I23">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{0F2E5A7F-0FA4-4BE3-9EF4-6A1DE489D30A}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{EE2CDE46-FD7A-4751-8789-D41A84EB35B9}"/>
+    <hyperlink ref="H14" r:id="rId3" xr:uid="{D1D755E4-1881-4EED-B434-425F446DF982}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{0E4F1ECD-3096-4A70-A522-A9FDEA50C56C}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{B7E11C09-E396-4149-A2F8-874EE15C3E4E}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{88A938C2-9B26-42C7-8880-C88218804A3E}"/>
+    <hyperlink ref="H23" r:id="rId7" xr:uid="{232B7E0E-F1C9-40B8-95DF-38551C89770F}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{01888A26-D721-4D40-810A-DC8A3C32AE45}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{EB79163A-8DB0-40E4-A649-A1D4AE53F772}"/>
+    <hyperlink ref="H21" r:id="rId10" xr:uid="{4460BA8E-79BE-404E-B21D-42F70CCFBF15}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{60F8BE54-A675-4B1A-BA47-F069FB1E5974}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{EC926E01-514D-49F5-8444-7E008839D1BA}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{DEF1C841-216E-4ACC-82EB-65A7894D07CF}"/>
+    <hyperlink ref="H10" r:id="rId14" xr:uid="{D825266C-AFF7-4315-B8F4-06D2ADD829E9}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{D5D83B18-5E56-48AF-BF77-1A345793FE09}"/>
+    <hyperlink ref="H4" r:id="rId16" xr:uid="{B7FBD7D1-6E13-482D-9411-A2C630C463B2}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{455D4F1A-3D5F-4AA0-A057-C2F37A83F41D}"/>
+    <hyperlink ref="H6" r:id="rId18" xr:uid="{B75B2A32-BDD8-4C79-B8A0-BBEC5F62D68D}"/>
+    <hyperlink ref="H3" r:id="rId19" xr:uid="{5A7A4C52-B2D7-4428-9256-23E7D96694E8}"/>
+    <hyperlink ref="H22" r:id="rId20" xr:uid="{91762B7F-40F7-4AD7-9E3B-EADE8D79087E}"/>
+    <hyperlink ref="H7" r:id="rId21" xr:uid="{0EB534D4-EAB4-41D0-8715-2B37F0A8D8B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>